--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MThai\Desktop\rm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ClassRoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F729EBA-AE24-435F-8518-A020EA2CEAFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2210AD87-11AB-46C3-8CEC-E44D69BF90CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6855" yWindow="5805" windowWidth="21600" windowHeight="11385" xr2:uid="{08A3E1A5-0F9D-4C18-9EFB-EB0972DAD0A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08A3E1A5-0F9D-4C18-9EFB-EB0972DAD0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,19 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>583020330-1</t>
-  </si>
-  <si>
-    <t> นายณัฎฐพงค์ รัตนศิริพรหม</t>
-  </si>
-  <si>
-    <t>583020370-9</t>
-  </si>
-  <si>
-    <t> นายอภิวัฒน์ เมฆวัน</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>593020052-4</t>
   </si>
@@ -193,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,27 +1048,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC9C82D-0A98-4A47-8FBB-9A7568E1D5D7}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="37.200000000000003">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="37.200000000000003">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1096,7 +1084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="37.200000000000003">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1104,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="37.200000000000003">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="37.200000000000003">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="37.200000000000003">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,7 +1116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="37.200000000000003">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="37.200000000000003">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="37.200000000000003">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1152,7 +1140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="37.200000000000003">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1160,7 +1148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="37.200000000000003">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1168,7 +1156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="37.200000000000003">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1176,7 +1164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="37.200000000000003">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1184,7 +1172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="37.200000000000003">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1192,7 +1180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="37.200000000000003">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1200,7 +1188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="37.200000000000003">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1208,7 +1196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="37.200000000000003">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1216,7 +1204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="37.200000000000003">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1224,7 +1212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="37.200000000000003">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1232,7 +1220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="37.200000000000003">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1240,7 +1228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="37.200000000000003">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1248,7 +1236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="37.200000000000003">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1256,28 +1244,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="37.200000000000003">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
